--- a/Tablas Comparativas/Grafiacas Y Tablas con las 30 Iteraciones BFOA.xlsx
+++ b/Tablas Comparativas/Grafiacas Y Tablas con las 30 Iteraciones BFOA.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARCHIVOS\REPOSITORIO\Tablas Comparativas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF52E9BB-C849-4FCE-B7CB-D6AF2A0D5FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22770" windowHeight="12480" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Promedio  Fitness Set A Nuevo" sheetId="7" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="39">
   <si>
     <t>Iteracion</t>
   </si>
@@ -119,18 +125,30 @@
   <si>
     <t>30</t>
   </si>
+  <si>
+    <t>Tabla 2: Promedio Fitness Set B</t>
+  </si>
+  <si>
+    <t>Tabla 1: Promedio Fitness Set A</t>
+  </si>
+  <si>
+    <t>Tabla 3: Promedio Fitness Set C</t>
+  </si>
+  <si>
+    <t>Gráfica 4: Promedio NFE Set A</t>
+  </si>
+  <si>
+    <t>Tabla 5: Promedio NFE Set B</t>
+  </si>
+  <si>
+    <t>Tabla 6: Promedio NFE Set C</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,151 +157,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,204 +173,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -516,62 +217,21 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,262 +239,78 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -865,12 +341,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>Promedio Fitness Set A</a:t>
+              <a:rPr lang="es-MX"/>
+              <a:t>Gráfica 1: Promedio Fitness Set A</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -879,6 +355,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -891,7 +387,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Promedio  Fitness Set A Nuevo'!$B$1</c:f>
+              <c:f>'Promedio  Fitness Set A Nuevo'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -912,12 +408,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Promedio  Fitness Set A Nuevo'!$A$2:$A$31</c:f>
+              <c:f>'Promedio  Fitness Set A Nuevo'!$A$3:$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
@@ -1015,18 +508,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Promedio  Fitness Set A Nuevo'!$B$2:$B$31</c:f>
+              <c:f>'Promedio  Fitness Set A Nuevo'!$B$3:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1097.86302273124</c:v>
+                  <c:v>1097.8630227312401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1128.34387976812</c:v>
+                  <c:v>1128.3438797681199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1158.19127718577</c:v>
+                  <c:v>1158.1912771857701</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1203.59022479294</c:v>
@@ -1038,10 +531,10 @@
                   <c:v>1271.95847923991</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1305.19727103042</c:v>
+                  <c:v>1305.1972710304201</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1317.46393769708</c:v>
+                  <c:v>1317.4639376970799</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1327.73060436375</c:v>
@@ -1053,7 +546,7 @@
                   <c:v>1355.29727103042</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1363.06393769708</c:v>
+                  <c:v>1363.0639376970801</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1368.99997484801</c:v>
@@ -1065,43 +558,43 @@
                   <c:v>1373.13333064116</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1373.66666664826</c:v>
+                  <c:v>1373.6666666482599</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1380.63333332413</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1390.73333333333</c:v>
+                  <c:v>1390.7333333333299</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1390.89997754018</c:v>
+                  <c:v>1390.8999775401801</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1402.96664420684</c:v>
+                  <c:v>1402.9666442068401</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1402.96664420684</c:v>
+                  <c:v>1402.9666442068401</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1405.39997754018</c:v>
+                  <c:v>1405.3999775401801</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1410.23331087351</c:v>
+                  <c:v>1410.2333108735099</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1416.46664420684</c:v>
+                  <c:v>1416.4666442068401</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1416.56610071079</c:v>
+                  <c:v>1416.5661007107899</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1417.09943404412</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1417.09956991814</c:v>
+                  <c:v>1417.0995699181401</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1417.43290325141</c:v>
+                  <c:v>1417.4329032514099</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1421.93290325147</c:v>
@@ -1113,13 +606,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E3E6-46A2-AC3F-E862AFB7EEBE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Promedio  Fitness Set A Nuevo'!$C$1</c:f>
+              <c:f>'Promedio  Fitness Set A Nuevo'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1140,12 +638,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Promedio  Fitness Set A Nuevo'!$A$2:$A$31</c:f>
+              <c:f>'Promedio  Fitness Set A Nuevo'!$A$3:$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
@@ -1243,18 +738,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Promedio  Fitness Set A Nuevo'!$C$2:$C$31</c:f>
+              <c:f>'Promedio  Fitness Set A Nuevo'!$C$3:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1570.52784530258</c:v>
+                  <c:v>1570.5278453025801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1581.25617865431</c:v>
+                  <c:v>1581.2561786543099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1582.75617865431</c:v>
+                  <c:v>1582.7561786543099</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1582.92304550321</c:v>
@@ -1266,22 +761,22 @@
                   <c:v>1582.92304550321</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1586.45637883654</c:v>
+                  <c:v>1586.4563788365399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1591.21471216987</c:v>
+                  <c:v>1591.2147121698699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1591.21471216987</c:v>
+                  <c:v>1591.2147121698699</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1591.21471216987</c:v>
+                  <c:v>1591.2147121698699</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1591.21471216987</c:v>
+                  <c:v>1591.2147121698699</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1591.21471216987</c:v>
+                  <c:v>1591.2147121698699</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1591.80637883654</c:v>
@@ -1305,42 +800,47 @@
                   <c:v>1595.83471216987</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1596.10137902138</c:v>
+                  <c:v>1596.1013790213799</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1596.10137902138</c:v>
+                  <c:v>1596.1013790213799</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1596.10137902138</c:v>
+                  <c:v>1596.1013790213799</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1596.10137902138</c:v>
+                  <c:v>1596.1013790213799</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1596.10137902138</c:v>
+                  <c:v>1596.1013790213799</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1596.10137902138</c:v>
+                  <c:v>1596.1013790213799</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1596.10137902138</c:v>
+                  <c:v>1596.1013790213799</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1596.10137902138</c:v>
+                  <c:v>1596.1013790213799</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1596.10137902138</c:v>
+                  <c:v>1596.1013790213799</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1596.10137902138</c:v>
+                  <c:v>1596.1013790213799</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1596.10137902138</c:v>
+                  <c:v>1596.1013790213799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E3E6-46A2-AC3F-E862AFB7EEBE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1350,7 +850,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="481025491"/>
         <c:axId val="580278881"/>
@@ -1362,6 +861,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1395,6 +895,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="580278881"/>
@@ -1453,6 +954,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="481025491"/>
@@ -1469,7 +971,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1495,6 +996,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1524,6 +1026,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1535,9 +1038,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1568,12 +1071,20 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Gráfica</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t> 2: </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX"/>
               <a:t>Promedio Fitness Set B</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1582,6 +1093,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1594,7 +1125,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Promedio Fitness Set B'!$B$1</c:f>
+              <c:f>'Promedio Fitness Set B'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1615,12 +1146,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Promedio Fitness Set B'!$A$2:$A$31</c:f>
+              <c:f>'Promedio Fitness Set B'!$A$3:$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
@@ -1718,111 +1246,116 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Promedio Fitness Set B'!$B$2:$B$31</c:f>
+              <c:f>'Promedio Fitness Set B'!$B$3:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>3626.53333333333</c:v>
+                  <c:v>3626.5333333333301</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3934.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4056.43333333333</c:v>
+                  <c:v>4056.4333333333302</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4118.16666665746</c:v>
+                  <c:v>4118.1666666574602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4148.26666666667</c:v>
+                  <c:v>4148.2666666666701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4163.89972825197</c:v>
+                  <c:v>4163.8997282519704</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4198.30850102471</c:v>
+                  <c:v>4198.3085010247096</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4203.84183435805</c:v>
+                  <c:v>4203.8418343580497</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4222.14142673601</c:v>
+                  <c:v>4222.1414267360096</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4258.87516769138</c:v>
+                  <c:v>4258.8751676913798</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4258.87516769138</c:v>
+                  <c:v>4258.8751676913798</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4277.00877277274</c:v>
+                  <c:v>4277.0087727727396</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4284.44210610607</c:v>
+                  <c:v>4284.4421061060702</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4293.07540453649</c:v>
+                  <c:v>4293.0754045364902</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4294.50873786982</c:v>
+                  <c:v>4294.5087378698199</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4325.64207120315</c:v>
+                  <c:v>4325.6420712031504</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>4329.27540453649</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4336.8366133008</c:v>
+                  <c:v>4336.8366133008003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4336.8366133008</c:v>
+                  <c:v>4336.8366133008003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4365.36504421659</c:v>
+                  <c:v>4365.3650442165899</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4365.36803974302</c:v>
+                  <c:v>4365.3680397430198</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4366.26953750623</c:v>
+                  <c:v>4366.2695375062303</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4366.26953750623</c:v>
+                  <c:v>4366.2695375062303</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4367.20424458018</c:v>
+                  <c:v>4367.2042445801799</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4373.32393315763</c:v>
+                  <c:v>4373.3239331576297</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4373.32393315763</c:v>
+                  <c:v>4373.3239331576297</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4388.62393315763</c:v>
+                  <c:v>4388.6239331576298</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4388.62393315763</c:v>
+                  <c:v>4388.6239331576298</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4388.62393315763</c:v>
+                  <c:v>4388.6239331576298</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4398.12393315763</c:v>
+                  <c:v>4398.1239331576298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF40-4B5E-98F7-934236C978BF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Promedio Fitness Set B'!$C$1</c:f>
+              <c:f>'Promedio Fitness Set B'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1843,12 +1376,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Promedio Fitness Set B'!$A$2:$A$31</c:f>
+              <c:f>'Promedio Fitness Set B'!$A$3:$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
@@ -1946,21 +1476,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Promedio Fitness Set B'!$C$2:$C$31</c:f>
+              <c:f>'Promedio Fitness Set B'!$C$3:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>5636.59427982678</c:v>
+                  <c:v>5636.5942798267797</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5897.37427982678</c:v>
+                  <c:v>5897.3742798267804</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5996.43427982678</c:v>
+                  <c:v>5996.4342798267799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6091.76942470942</c:v>
+                  <c:v>6091.7694247094196</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6190.58</c:v>
@@ -1969,7 +1499,7 @@
                   <c:v>6211.11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6269.12666666667</c:v>
+                  <c:v>6269.1266666666697</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6359.58</c:v>
@@ -1981,13 +1511,13 @@
                   <c:v>6377.62</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6381.01666666666</c:v>
+                  <c:v>6381.0166666666601</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6431.92333333333</c:v>
+                  <c:v>6431.9233333333304</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6458.37666666666</c:v>
+                  <c:v>6458.3766666666597</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>6473.03</c:v>
@@ -2005,7 +1535,7 @@
                   <c:v>6550.98</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6569.95666666666</c:v>
+                  <c:v>6569.9566666666597</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>6573.89</c:v>
@@ -2023,7 +1553,7 @@
                   <c:v>6575.64</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6583.26333333333</c:v>
+                  <c:v>6583.2633333333297</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>6595.35</c:v>
@@ -2044,6 +1574,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FF40-4B5E-98F7-934236C978BF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2053,7 +1588,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="728157823"/>
         <c:axId val="434319840"/>
@@ -2065,6 +1599,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2098,6 +1633,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="434319840"/>
@@ -2156,6 +1692,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="728157823"/>
@@ -2172,7 +1709,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2198,6 +1734,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2227,6 +1764,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2238,9 +1776,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2271,12 +1809,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>Promedio Fitness Set C</a:t>
+              <a:rPr lang="es-MX"/>
+              <a:t>Gráfica 3: Promedio Fitness Set C</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2285,6 +1823,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2297,7 +1855,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Promedio Fitness Set C'!$B$1</c:f>
+              <c:f>'Promedio Fitness Set C'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2318,12 +1876,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Promedio Fitness Set C'!$A$2:$A$31</c:f>
+              <c:f>'Promedio Fitness Set C'!$A$3:$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
@@ -2421,7 +1976,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Promedio Fitness Set C'!$B$2:$B$31</c:f>
+              <c:f>'Promedio Fitness Set C'!$B$3:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -2429,25 +1984,25 @@
                   <c:v>492.066666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1330.96666666667</c:v>
+                  <c:v>1330.9666666666701</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1647.13333065987</c:v>
+                  <c:v>1647.1333306598699</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1873.6333331485</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2038.42787524583</c:v>
+                  <c:v>2038.4278752458299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2308.86393753034</c:v>
+                  <c:v>2308.8639375303401</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2477.13333314847</c:v>
+                  <c:v>2477.1333331484698</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2627.89999981513</c:v>
+                  <c:v>2627.8999998151298</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2872.99999999997</c:v>
@@ -2456,7 +2011,7 @@
                   <c:v>3032.76666666664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3052.16666666664</c:v>
+                  <c:v>3052.1666666666401</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3101.36666666667</c:v>
@@ -2465,49 +2020,49 @@
                   <c:v>3105.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3195.8999101604</c:v>
+                  <c:v>3195.8999101603999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3319.39999751138</c:v>
+                  <c:v>3319.3999975113802</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3393.66666417805</c:v>
+                  <c:v>3393.6666641780498</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3491.73333084471</c:v>
+                  <c:v>3491.7333308447101</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3582.26666417805</c:v>
+                  <c:v>3582.2666641780502</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3649.66666665746</c:v>
+                  <c:v>3649.6666666574602</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3743.26666665746</c:v>
+                  <c:v>3743.2666666574601</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3766.0999999908</c:v>
+                  <c:v>3766.0999999907999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3817.56666665746</c:v>
+                  <c:v>3817.5666666574598</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3837.86666628779</c:v>
+                  <c:v>3837.8666662877899</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>3879.46666646311</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3917.33333312978</c:v>
+                  <c:v>3917.3333331297799</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3929.66666646312</c:v>
+                  <c:v>3929.6666664631198</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3954.93319725608</c:v>
+                  <c:v>3954.9331972560799</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3958.29986410758</c:v>
+                  <c:v>3958.2998641075801</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>4010.93319744061</c:v>
@@ -2519,13 +2074,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-78E3-4261-9391-6F58F430D40A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Promedio Fitness Set C'!$C$1</c:f>
+              <c:f>'Promedio Fitness Set C'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2546,12 +2106,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Promedio Fitness Set C'!$A$2:$A$31</c:f>
+              <c:f>'Promedio Fitness Set C'!$A$3:$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
@@ -2649,104 +2206,109 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Promedio Fitness Set C'!$C$2:$C$31</c:f>
+              <c:f>'Promedio Fitness Set C'!$C$3:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>3239.54256128124</c:v>
+                  <c:v>3239.5425612812401</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3750.87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3917.25333333333</c:v>
+                  <c:v>3917.2533333333299</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4179.78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4580.54666666666</c:v>
+                  <c:v>4580.5466666666598</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4798.42333333333</c:v>
+                  <c:v>4798.4233333333304</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4880.48166666666</c:v>
+                  <c:v>4880.4816666666602</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4881.325</c:v>
+                  <c:v>4881.3249999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4947.105</c:v>
+                  <c:v>4947.1049999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4982.79666666667</c:v>
+                  <c:v>4982.7966666666698</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5026.00166666667</c:v>
+                  <c:v>5026.0016666666697</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5151.82981715003</c:v>
+                  <c:v>5151.8298171500301</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5152.99833333333</c:v>
+                  <c:v>5152.9983333333303</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>5225.72</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5294.36666666666</c:v>
+                  <c:v>5294.3666666666604</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5388.075</c:v>
+                  <c:v>5388.0749999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5407.84833333333</c:v>
+                  <c:v>5407.8483333333297</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5411.15666666666</c:v>
+                  <c:v>5411.1566666666604</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5444.61666666666</c:v>
+                  <c:v>5444.6166666666604</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5503.34833333333</c:v>
+                  <c:v>5503.3483333333297</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5507.495</c:v>
+                  <c:v>5507.4949999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5628.55166666666</c:v>
+                  <c:v>5628.5516666666599</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>5692.54</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5719.99666666666</c:v>
+                  <c:v>5719.9966666666596</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5741.29833333333</c:v>
+                  <c:v>5741.2983333333304</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5773.03833333333</c:v>
+                  <c:v>5773.0383333333302</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5812.86166666666</c:v>
+                  <c:v>5812.8616666666603</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5812.98166666666</c:v>
+                  <c:v>5812.9816666666602</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5860.77166666666</c:v>
+                  <c:v>5860.7716666666602</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5901.30166666666</c:v>
+                  <c:v>5901.3016666666599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-78E3-4261-9391-6F58F430D40A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2756,7 +2318,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="547570079"/>
         <c:axId val="770723701"/>
@@ -2768,6 +2329,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2801,6 +2363,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="770723701"/>
@@ -2859,6 +2422,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="547570079"/>
@@ -2875,7 +2439,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2901,6 +2464,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2930,6 +2494,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2941,9 +2506,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2974,12 +2539,20 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Gráfica</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t> 4: </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX"/>
               <a:t>Promedio NFE Set A</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2988,6 +2561,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3000,7 +2593,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Promedio NFE Set A Nuevo'!$B$1</c:f>
+              <c:f>'Promedio NFE Set A Nuevo'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3021,12 +2614,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Promedio NFE Set A Nuevo'!$A$2:$A$31</c:f>
+              <c:f>'Promedio NFE Set A Nuevo'!$A$3:$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
@@ -3124,7 +2714,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Promedio NFE Set A Nuevo'!$B$2:$B$31</c:f>
+              <c:f>'Promedio NFE Set A Nuevo'!$B$3:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3222,13 +2812,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB42-429B-A361-ABA26BC421FA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Promedio NFE Set A Nuevo'!$C$1</c:f>
+              <c:f>'Promedio NFE Set A Nuevo'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3249,12 +2844,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Promedio NFE Set A Nuevo'!$A$2:$A$31</c:f>
+              <c:f>'Promedio NFE Set A Nuevo'!$A$3:$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
@@ -3352,7 +2944,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Promedio NFE Set A Nuevo'!$C$2:$C$31</c:f>
+              <c:f>'Promedio NFE Set A Nuevo'!$C$3:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3450,6 +3042,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AB42-429B-A361-ABA26BC421FA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3459,7 +3056,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="25083645"/>
         <c:axId val="580337996"/>
@@ -3471,6 +3067,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3504,6 +3101,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="580337996"/>
@@ -3562,6 +3160,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="25083645"/>
@@ -3578,7 +3177,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3604,6 +3202,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3633,6 +3232,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3644,9 +3244,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3677,12 +3277,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>Promedio NFE Set B</a:t>
+              <a:rPr lang="es-MX"/>
+              <a:t>Gráfica 5: Promedio NFE Set B</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3691,6 +3291,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3703,7 +3323,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Promedio NFE Set B'!$B$1</c:f>
+              <c:f>'Promedio NFE Set B'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3724,12 +3344,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Promedio NFE Set B'!$A$2:$A$31</c:f>
+              <c:f>'Promedio NFE Set B'!$A$3:$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
@@ -3827,7 +3444,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Promedio NFE Set B'!$B$2:$B$31</c:f>
+              <c:f>'Promedio NFE Set B'!$B$3:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3925,13 +3542,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C015-4924-8474-8932D60A1B37}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Promedio NFE Set B'!$C$1</c:f>
+              <c:f>'Promedio NFE Set B'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3952,12 +3574,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Promedio NFE Set B'!$A$2:$A$31</c:f>
+              <c:f>'Promedio NFE Set B'!$A$3:$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
@@ -4055,7 +3674,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Promedio NFE Set B'!$C$2:$C$31</c:f>
+              <c:f>'Promedio NFE Set B'!$C$3:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4153,6 +3772,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C015-4924-8474-8932D60A1B37}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4162,7 +3786,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="699742282"/>
         <c:axId val="906391517"/>
@@ -4174,6 +3797,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4207,6 +3831,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="906391517"/>
@@ -4265,6 +3890,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="699742282"/>
@@ -4281,7 +3907,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4307,6 +3932,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4336,6 +3962,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4347,9 +3974,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4381,13 +4008,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES_tradnl" altLang="en-US"/>
-              <a:t>Promedio NFE Set C</a:t>
+              <a:t>Gráfica 6: Promedio NFE Set C</a:t>
             </a:r>
-            <a:endParaRPr lang="es-ES_tradnl" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4396,6 +4021,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4408,7 +4053,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Promedio NFE Set C'!$B$1</c:f>
+              <c:f>'Promedio NFE Set C'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4429,12 +4074,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Promedio NFE Set C'!$A$2:$A$31</c:f>
+              <c:f>'Promedio NFE Set C'!$A$3:$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
@@ -4532,7 +4174,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Promedio NFE Set C'!$B$2:$B$31</c:f>
+              <c:f>'Promedio NFE Set C'!$B$3:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4561,7 +4203,7 @@
                   <c:v>180.566666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>203.233333333333</c:v>
+                  <c:v>203.23333333333301</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>225.7</c:v>
@@ -4570,16 +4212,16 @@
                   <c:v>248.066666666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>270.366666666667</c:v>
+                  <c:v>270.36666666666702</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>292.833333333333</c:v>
+                  <c:v>292.83333333333297</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>315.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>337.833333333333</c:v>
+                  <c:v>337.83333333333297</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>360.2</c:v>
@@ -4588,55 +4230,60 @@
                   <c:v>382.4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>404.633333333333</c:v>
+                  <c:v>404.63333333333298</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>426.766666666667</c:v>
+                  <c:v>426.76666666666699</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>449</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>471.133333333333</c:v>
+                  <c:v>471.13333333333298</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>493.4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>515.733333333333</c:v>
+                  <c:v>515.73333333333301</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>538</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>560.133333333333</c:v>
+                  <c:v>560.13333333333298</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>582.4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>604.533333333333</c:v>
+                  <c:v>604.53333333333296</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>626.566666666667</c:v>
+                  <c:v>626.56666666666695</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>648.666666666667</c:v>
+                  <c:v>648.66666666666697</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>670.733333333333</c:v>
+                  <c:v>670.73333333333301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3412-4AB9-A7E6-324B8350EF71}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Promedio NFE Set C'!$C$1</c:f>
+              <c:f>'Promedio NFE Set C'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4657,12 +4304,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Promedio NFE Set C'!$A$2:$A$31</c:f>
+              <c:f>'Promedio NFE Set C'!$A$3:$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
@@ -4760,7 +4404,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Promedio NFE Set C'!$C$2:$C$31</c:f>
+              <c:f>'Promedio NFE Set C'!$C$3:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4768,37 +4412,37 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.0666666666667</c:v>
+                  <c:v>37.066666666666698</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>59.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82.9666666666667</c:v>
+                  <c:v>82.966666666666697</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>105.933333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>128.966666666667</c:v>
+                  <c:v>128.96666666666701</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>151.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>174.266666666667</c:v>
+                  <c:v>174.26666666666699</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>196.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>219.366666666667</c:v>
+                  <c:v>219.36666666666699</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>241.766666666667</c:v>
+                  <c:v>241.76666666666699</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>264.166666666667</c:v>
+                  <c:v>264.16666666666703</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>286.566666666667</c:v>
@@ -4807,7 +4451,7 @@
                   <c:v>308.933333333333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>331.533333333333</c:v>
+                  <c:v>331.53333333333302</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>354.1</c:v>
@@ -4816,22 +4460,22 @@
                   <c:v>376.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>398.866666666667</c:v>
+                  <c:v>398.86666666666702</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>421.466666666667</c:v>
+                  <c:v>421.46666666666698</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>444.033333333333</c:v>
+                  <c:v>444.03333333333302</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>466.633333333333</c:v>
+                  <c:v>466.63333333333298</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>489.1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>511.366666666667</c:v>
+                  <c:v>511.36666666666702</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>533.6</c:v>
@@ -4840,24 +4484,29 @@
                   <c:v>555.9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>578.166666666667</c:v>
+                  <c:v>578.16666666666697</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>600.733333333333</c:v>
+                  <c:v>600.73333333333301</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>623.133333333333</c:v>
+                  <c:v>623.13333333333298</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>645.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>667.966666666667</c:v>
+                  <c:v>667.96666666666704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3412-4AB9-A7E6-324B8350EF71}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4867,7 +4516,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="980876828"/>
         <c:axId val="694365023"/>
@@ -4879,6 +4527,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4912,6 +4561,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="694365023"/>
@@ -4970,6 +4620,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="980876828"/>
@@ -4986,7 +4637,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5012,6 +4662,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5041,6 +4692,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8388,7 +8040,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -8397,19 +8049,25 @@
       <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>307975</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381595</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>166555</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6051550" y="1292225"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8423,28 +8081,34 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
+      <xdr:colOff>24130</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>486370</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>157030</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5822950" y="1860550"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8458,28 +8122,34 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>212725</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>193675</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>235585</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>669925</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>80605</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>166555</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7099300" y="2289175"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8493,7 +8163,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -8502,19 +8172,25 @@
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219670</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>31300</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5861050" y="1765300"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8528,7 +8204,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -8537,19 +8213,25 @@
       <xdr:rowOff>117475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>10120</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>59875</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5784850" y="1793875"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8563,28 +8245,34 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561340</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>39370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>406360</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>164650</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6832600" y="2374900"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8849,85 +8537,81 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1097.86302273124</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1570.52784530258</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>1128.34387976812</v>
+        <v>1097.8630227312401</v>
       </c>
       <c r="C3" s="4">
-        <v>1581.25617865431</v>
+        <v>1570.5278453025801</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>1158.19127718577</v>
+        <v>1128.3438797681199</v>
       </c>
       <c r="C4" s="4">
-        <v>1582.75617865431</v>
+        <v>1581.2561786543099</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>1203.59022479294</v>
+        <v>1158.1912771857701</v>
       </c>
       <c r="C5" s="4">
-        <v>1582.92304550321</v>
+        <v>1582.7561786543099</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>1233.69172144922</v>
+        <v>1203.59022479294</v>
       </c>
       <c r="C6" s="4">
         <v>1582.92304550321</v>
@@ -8935,10 +8619,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>1271.95847923991</v>
+        <v>1233.69172144922</v>
       </c>
       <c r="C7" s="4">
         <v>1582.92304550321</v>
@@ -8946,98 +8630,98 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>1305.19727103042</v>
+        <v>1271.95847923991</v>
       </c>
       <c r="C8" s="4">
-        <v>1586.45637883654</v>
+        <v>1582.92304550321</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>1317.46393769708</v>
+        <v>1305.1972710304201</v>
       </c>
       <c r="C9" s="4">
-        <v>1591.21471216987</v>
+        <v>1586.4563788365399</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>1327.73060436375</v>
+        <v>1317.4639376970799</v>
       </c>
       <c r="C10" s="4">
-        <v>1591.21471216987</v>
+        <v>1591.2147121698699</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4">
-        <v>1344.09727103042</v>
+        <v>1327.73060436375</v>
       </c>
       <c r="C11" s="4">
-        <v>1591.21471216987</v>
+        <v>1591.2147121698699</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4">
-        <v>1355.29727103042</v>
+        <v>1344.09727103042</v>
       </c>
       <c r="C12" s="4">
-        <v>1591.21471216987</v>
+        <v>1591.2147121698699</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4">
-        <v>1363.06393769708</v>
+        <v>1355.29727103042</v>
       </c>
       <c r="C13" s="4">
-        <v>1591.21471216987</v>
+        <v>1591.2147121698699</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4">
-        <v>1368.99997484801</v>
+        <v>1363.0639376970801</v>
       </c>
       <c r="C14" s="4">
-        <v>1591.80637883654</v>
+        <v>1591.2147121698699</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4">
-        <v>1368.99999730783</v>
+        <v>1368.99997484801</v>
       </c>
       <c r="C15" s="4">
-        <v>1595.83471216987</v>
+        <v>1591.80637883654</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4">
-        <v>1373.13333064116</v>
+        <v>1368.99999730783</v>
       </c>
       <c r="C16" s="4">
         <v>1595.83471216987</v>
@@ -9045,10 +8729,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4">
-        <v>1373.66666664826</v>
+        <v>1373.13333064116</v>
       </c>
       <c r="C17" s="4">
         <v>1595.83471216987</v>
@@ -9056,10 +8740,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4">
-        <v>1380.63333332413</v>
+        <v>1373.6666666482599</v>
       </c>
       <c r="C18" s="4">
         <v>1595.83471216987</v>
@@ -9067,10 +8751,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4">
-        <v>1390.73333333333</v>
+        <v>1380.63333332413</v>
       </c>
       <c r="C19" s="4">
         <v>1595.83471216987</v>
@@ -9078,10 +8762,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4">
-        <v>1390.89997754018</v>
+        <v>1390.7333333333299</v>
       </c>
       <c r="C20" s="4">
         <v>1595.83471216987</v>
@@ -9089,350 +8773,358 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4">
-        <v>1402.96664420684</v>
+        <v>1390.8999775401801</v>
       </c>
       <c r="C21" s="4">
-        <v>1596.10137902138</v>
+        <v>1595.83471216987</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4">
-        <v>1402.96664420684</v>
+        <v>1402.9666442068401</v>
       </c>
       <c r="C22" s="4">
-        <v>1596.10137902138</v>
+        <v>1596.1013790213799</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4">
-        <v>1405.39997754018</v>
+        <v>1402.9666442068401</v>
       </c>
       <c r="C23" s="4">
-        <v>1596.10137902138</v>
+        <v>1596.1013790213799</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4">
-        <v>1410.23331087351</v>
+        <v>1405.3999775401801</v>
       </c>
       <c r="C24" s="4">
-        <v>1596.10137902138</v>
+        <v>1596.1013790213799</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="4">
-        <v>1416.46664420684</v>
+        <v>1410.2333108735099</v>
       </c>
       <c r="C25" s="4">
-        <v>1596.10137902138</v>
+        <v>1596.1013790213799</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="4">
-        <v>1416.56610071079</v>
+        <v>1416.4666442068401</v>
       </c>
       <c r="C26" s="4">
-        <v>1596.10137902138</v>
+        <v>1596.1013790213799</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="4">
-        <v>1417.09943404412</v>
+        <v>1416.5661007107899</v>
       </c>
       <c r="C27" s="4">
-        <v>1596.10137902138</v>
+        <v>1596.1013790213799</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="4">
-        <v>1417.09956991814</v>
+        <v>1417.09943404412</v>
       </c>
       <c r="C28" s="4">
-        <v>1596.10137902138</v>
+        <v>1596.1013790213799</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4">
-        <v>1417.43290325141</v>
+        <v>1417.0995699181401</v>
       </c>
       <c r="C29" s="4">
-        <v>1596.10137902138</v>
+        <v>1596.1013790213799</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4">
-        <v>1421.93290325147</v>
+        <v>1417.4329032514099</v>
       </c>
       <c r="C30" s="4">
-        <v>1596.10137902138</v>
+        <v>1596.1013790213799</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1421.93290325147</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1596.1013790213799</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B32" s="4">
         <v>1431.86650584421</v>
       </c>
-      <c r="C31" s="4">
-        <v>1596.10137902138</v>
+      <c r="C32" s="4">
+        <v>1596.1013790213799</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="3" width="23.75" customWidth="1"/>
+    <col min="2" max="3" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4">
-        <v>3626.53333333333</v>
-      </c>
-      <c r="C2" s="4">
-        <v>5636.59427982678</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>3934.2</v>
+        <v>3626.5333333333301</v>
       </c>
       <c r="C3" s="4">
-        <v>5897.37427982678</v>
+        <v>5636.5942798267797</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>4056.43333333333</v>
+        <v>3934.2</v>
       </c>
       <c r="C4" s="4">
-        <v>5996.43427982678</v>
+        <v>5897.3742798267804</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>4118.16666665746</v>
+        <v>4056.4333333333302</v>
       </c>
       <c r="C5" s="4">
-        <v>6091.76942470942</v>
+        <v>5996.4342798267799</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>4148.26666666667</v>
+        <v>4118.1666666574602</v>
       </c>
       <c r="C6" s="4">
-        <v>6190.58</v>
+        <v>6091.7694247094196</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>4163.89972825197</v>
+        <v>4148.2666666666701</v>
       </c>
       <c r="C7" s="4">
-        <v>6211.11</v>
+        <v>6190.58</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>4198.30850102471</v>
+        <v>4163.8997282519704</v>
       </c>
       <c r="C8" s="4">
-        <v>6269.12666666667</v>
+        <v>6211.11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>4203.84183435805</v>
+        <v>4198.3085010247096</v>
       </c>
       <c r="C9" s="4">
-        <v>6359.58</v>
+        <v>6269.1266666666697</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>4222.14142673601</v>
+        <v>4203.8418343580497</v>
       </c>
       <c r="C10" s="4">
-        <v>6366.05666666666</v>
+        <v>6359.58</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4">
-        <v>4258.87516769138</v>
+        <v>4222.1414267360096</v>
       </c>
       <c r="C11" s="4">
-        <v>6377.62</v>
+        <v>6366.05666666666</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4">
-        <v>4258.87516769138</v>
+        <v>4258.8751676913798</v>
       </c>
       <c r="C12" s="4">
-        <v>6381.01666666666</v>
+        <v>6377.62</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4">
-        <v>4277.00877277274</v>
+        <v>4258.8751676913798</v>
       </c>
       <c r="C13" s="4">
-        <v>6431.92333333333</v>
+        <v>6381.0166666666601</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4">
-        <v>4284.44210610607</v>
+        <v>4277.0087727727396</v>
       </c>
       <c r="C14" s="4">
-        <v>6458.37666666666</v>
+        <v>6431.9233333333304</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4">
-        <v>4293.07540453649</v>
+        <v>4284.4421061060702</v>
       </c>
       <c r="C15" s="4">
-        <v>6473.03</v>
+        <v>6458.3766666666597</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4">
-        <v>4294.50873786982</v>
+        <v>4293.0754045364902</v>
       </c>
       <c r="C16" s="4">
-        <v>6502.9</v>
+        <v>6473.03</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4">
-        <v>4325.64207120315</v>
+        <v>4294.5087378698199</v>
       </c>
       <c r="C17" s="4">
-        <v>6550.92</v>
+        <v>6502.9</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4">
-        <v>4329.27540453649</v>
+        <v>4325.6420712031504</v>
       </c>
       <c r="C18" s="4">
-        <v>6550.98</v>
+        <v>6550.92</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4">
-        <v>4336.8366133008</v>
+        <v>4329.27540453649</v>
       </c>
       <c r="C19" s="4">
         <v>6550.98</v>
@@ -9440,43 +9132,43 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4">
-        <v>4336.8366133008</v>
+        <v>4336.8366133008003</v>
       </c>
       <c r="C20" s="4">
-        <v>6569.95666666666</v>
+        <v>6550.98</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4">
-        <v>4365.36504421659</v>
+        <v>4336.8366133008003</v>
       </c>
       <c r="C21" s="4">
-        <v>6573.89</v>
+        <v>6569.9566666666597</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4">
-        <v>4365.36803974302</v>
+        <v>4365.3650442165899</v>
       </c>
       <c r="C22" s="4">
-        <v>6573.92</v>
+        <v>6573.89</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4">
-        <v>4366.26953750623</v>
+        <v>4365.3680397430198</v>
       </c>
       <c r="C23" s="4">
         <v>6573.92</v>
@@ -9484,10 +9176,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4">
-        <v>4366.26953750623</v>
+        <v>4366.2695375062303</v>
       </c>
       <c r="C24" s="4">
         <v>6573.92</v>
@@ -9495,1536 +9187,1581 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="4">
-        <v>4367.20424458018</v>
+        <v>4366.2695375062303</v>
       </c>
       <c r="C25" s="4">
-        <v>6575.64</v>
+        <v>6573.92</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="4">
-        <v>4373.32393315763</v>
+        <v>4367.2042445801799</v>
       </c>
       <c r="C26" s="4">
-        <v>6583.26333333333</v>
+        <v>6575.64</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="4">
-        <v>4373.32393315763</v>
+        <v>4373.3239331576297</v>
       </c>
       <c r="C27" s="4">
-        <v>6595.35</v>
+        <v>6583.2633333333297</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="4">
-        <v>4388.62393315763</v>
+        <v>4373.3239331576297</v>
       </c>
       <c r="C28" s="4">
-        <v>6595.38</v>
+        <v>6595.35</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4">
-        <v>4388.62393315763</v>
+        <v>4388.6239331576298</v>
       </c>
       <c r="C29" s="4">
-        <v>6597.69333333333</v>
+        <v>6595.38</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4">
-        <v>4388.62393315763</v>
+        <v>4388.6239331576298</v>
       </c>
       <c r="C30" s="4">
-        <v>6604.15</v>
+        <v>6597.69333333333</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="4">
+        <v>4388.6239331576298</v>
+      </c>
+      <c r="C31" s="4">
+        <v>6604.15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="4">
-        <v>4398.12393315763</v>
-      </c>
-      <c r="C31" s="4">
+      <c r="B32" s="4">
+        <v>4398.1239331576298</v>
+      </c>
+      <c r="C32" s="4">
         <v>6604.24</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4">
-        <v>492.066666666667</v>
-      </c>
-      <c r="C2" s="4">
-        <v>3239.54256128124</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>1330.96666666667</v>
+        <v>492.066666666667</v>
       </c>
       <c r="C3" s="4">
-        <v>3750.87</v>
+        <v>3239.5425612812401</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>1647.13333065987</v>
+        <v>1330.9666666666701</v>
       </c>
       <c r="C4" s="4">
-        <v>3917.25333333333</v>
+        <v>3750.87</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>1873.6333331485</v>
+        <v>1647.1333306598699</v>
       </c>
       <c r="C5" s="4">
-        <v>4179.78</v>
+        <v>3917.2533333333299</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>2038.42787524583</v>
+        <v>1873.6333331485</v>
       </c>
       <c r="C6" s="4">
-        <v>4580.54666666666</v>
+        <v>4179.78</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>2308.86393753034</v>
+        <v>2038.4278752458299</v>
       </c>
       <c r="C7" s="4">
-        <v>4798.42333333333</v>
+        <v>4580.5466666666598</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>2477.13333314847</v>
+        <v>2308.8639375303401</v>
       </c>
       <c r="C8" s="4">
-        <v>4880.48166666666</v>
+        <v>4798.4233333333304</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>2627.89999981513</v>
+        <v>2477.1333331484698</v>
       </c>
       <c r="C9" s="4">
-        <v>4881.325</v>
+        <v>4880.4816666666602</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>2872.99999999997</v>
+        <v>2627.8999998151298</v>
       </c>
       <c r="C10" s="4">
-        <v>4947.105</v>
+        <v>4881.3249999999998</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4">
-        <v>3032.76666666664</v>
+        <v>2872.99999999997</v>
       </c>
       <c r="C11" s="4">
-        <v>4982.79666666667</v>
+        <v>4947.1049999999996</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4">
-        <v>3052.16666666664</v>
+        <v>3032.76666666664</v>
       </c>
       <c r="C12" s="4">
-        <v>5026.00166666667</v>
+        <v>4982.7966666666698</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4">
-        <v>3101.36666666667</v>
+        <v>3052.1666666666401</v>
       </c>
       <c r="C13" s="4">
-        <v>5151.82981715003</v>
+        <v>5026.0016666666697</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4">
-        <v>3105.5</v>
+        <v>3101.36666666667</v>
       </c>
       <c r="C14" s="4">
-        <v>5152.99833333333</v>
+        <v>5151.8298171500301</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4">
-        <v>3195.8999101604</v>
+        <v>3105.5</v>
       </c>
       <c r="C15" s="4">
-        <v>5225.72</v>
+        <v>5152.9983333333303</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4">
-        <v>3319.39999751138</v>
+        <v>3195.8999101603999</v>
       </c>
       <c r="C16" s="4">
-        <v>5294.36666666666</v>
+        <v>5225.72</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4">
-        <v>3393.66666417805</v>
+        <v>3319.3999975113802</v>
       </c>
       <c r="C17" s="4">
-        <v>5388.075</v>
+        <v>5294.3666666666604</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4">
-        <v>3491.73333084471</v>
+        <v>3393.6666641780498</v>
       </c>
       <c r="C18" s="4">
-        <v>5407.84833333333</v>
+        <v>5388.0749999999998</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4">
-        <v>3582.26666417805</v>
+        <v>3491.7333308447101</v>
       </c>
       <c r="C19" s="4">
-        <v>5411.15666666666</v>
+        <v>5407.8483333333297</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4">
-        <v>3649.66666665746</v>
+        <v>3582.2666641780502</v>
       </c>
       <c r="C20" s="4">
-        <v>5444.61666666666</v>
+        <v>5411.1566666666604</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4">
-        <v>3743.26666665746</v>
+        <v>3649.6666666574602</v>
       </c>
       <c r="C21" s="4">
-        <v>5503.34833333333</v>
+        <v>5444.6166666666604</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4">
-        <v>3766.0999999908</v>
+        <v>3743.2666666574601</v>
       </c>
       <c r="C22" s="4">
-        <v>5507.495</v>
+        <v>5503.3483333333297</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4">
-        <v>3817.56666665746</v>
+        <v>3766.0999999907999</v>
       </c>
       <c r="C23" s="4">
-        <v>5628.55166666666</v>
+        <v>5507.4949999999999</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4">
-        <v>3837.86666628779</v>
+        <v>3817.5666666574598</v>
       </c>
       <c r="C24" s="4">
-        <v>5692.54</v>
+        <v>5628.5516666666599</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="4">
-        <v>3879.46666646311</v>
+        <v>3837.8666662877899</v>
       </c>
       <c r="C25" s="4">
-        <v>5719.99666666666</v>
+        <v>5692.54</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="4">
-        <v>3917.33333312978</v>
+        <v>3879.46666646311</v>
       </c>
       <c r="C26" s="4">
-        <v>5741.29833333333</v>
+        <v>5719.9966666666596</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="4">
-        <v>3929.66666646312</v>
+        <v>3917.3333331297799</v>
       </c>
       <c r="C27" s="4">
-        <v>5773.03833333333</v>
+        <v>5741.2983333333304</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="4">
-        <v>3954.93319725608</v>
+        <v>3929.6666664631198</v>
       </c>
       <c r="C28" s="4">
-        <v>5812.86166666666</v>
+        <v>5773.0383333333302</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4">
-        <v>3958.29986410758</v>
+        <v>3954.9331972560799</v>
       </c>
       <c r="C29" s="4">
-        <v>5812.98166666666</v>
+        <v>5812.8616666666603</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4">
-        <v>4010.93319744061</v>
+        <v>3958.2998641075801</v>
       </c>
       <c r="C30" s="4">
-        <v>5860.77166666666</v>
+        <v>5812.9816666666602</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="4">
+        <v>4010.93319744061</v>
+      </c>
+      <c r="C31" s="4">
+        <v>5860.7716666666602</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B32" s="4">
         <v>4027.76653077425</v>
       </c>
-      <c r="C31" s="4">
-        <v>5901.30166666666</v>
+      <c r="C32" s="4">
+        <v>5901.3016666666599</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C4" s="4">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C5" s="4">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C6" s="4">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C7" s="4">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C8" s="4">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="C9" s="4">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="C10" s="4">
-        <v>191</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C11" s="4">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="C12" s="4">
-        <v>235</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="C13" s="4">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="C14" s="4">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C15" s="4">
-        <v>301</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="C16" s="4">
-        <v>323</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="C17" s="4">
-        <v>345</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="C18" s="4">
-        <v>367</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="C19" s="4">
-        <v>389</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="C20" s="4">
-        <v>411</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="C21" s="4">
-        <v>433</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="C22" s="4">
-        <v>455</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="C23" s="4">
-        <v>477</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="C24" s="4">
-        <v>499</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="4">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="C25" s="4">
-        <v>521</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="4">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="C26" s="4">
-        <v>543</v>
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="4">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="C27" s="4">
-        <v>565</v>
+        <v>543</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="4">
-        <v>587</v>
+        <v>565</v>
       </c>
       <c r="C28" s="4">
-        <v>587</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4">
-        <v>609</v>
+        <v>587</v>
       </c>
       <c r="C29" s="4">
-        <v>609</v>
+        <v>587</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4">
-        <v>631</v>
+        <v>609</v>
       </c>
       <c r="C30" s="4">
-        <v>631</v>
+        <v>609</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="4">
+        <v>631</v>
+      </c>
+      <c r="C31" s="4">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B32" s="4">
         <v>653</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C32" s="4">
         <v>653</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C4" s="4">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C5" s="4">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C6" s="4">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C7" s="4">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C8" s="4">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="C9" s="4">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="C10" s="4">
-        <v>191</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C11" s="4">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="C12" s="4">
-        <v>235</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="C13" s="4">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="C14" s="4">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C15" s="4">
-        <v>301</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="C16" s="4">
-        <v>323</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="C17" s="4">
-        <v>345</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="C18" s="4">
-        <v>367</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="C19" s="4">
-        <v>389</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="C20" s="4">
-        <v>411</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="C21" s="4">
-        <v>433</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="C22" s="4">
-        <v>455</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="C23" s="4">
-        <v>477</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="C24" s="4">
-        <v>499</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="4">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="C25" s="4">
-        <v>521</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="4">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="C26" s="4">
-        <v>543</v>
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="4">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="C27" s="4">
-        <v>565</v>
+        <v>543</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="4">
-        <v>587</v>
+        <v>565</v>
       </c>
       <c r="C28" s="4">
-        <v>587</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4">
-        <v>609</v>
+        <v>587</v>
       </c>
       <c r="C29" s="4">
-        <v>609</v>
+        <v>587</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4">
-        <v>631</v>
+        <v>609</v>
       </c>
       <c r="C30" s="4">
-        <v>631</v>
+        <v>609</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="4">
+        <v>631</v>
+      </c>
+      <c r="C31" s="4">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B32" s="4">
         <v>653</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C32" s="4">
         <v>653</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4">
-        <v>37.0666666666667</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C4" s="4">
-        <v>59.9</v>
+        <v>37.066666666666698</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C5" s="4">
-        <v>82.9666666666667</v>
+        <v>59.9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>110.866666666667</v>
+        <v>87</v>
       </c>
       <c r="C6" s="4">
-        <v>105.933333333333</v>
+        <v>82.966666666666697</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>134.5</v>
+        <v>110.866666666667</v>
       </c>
       <c r="C7" s="4">
-        <v>128.966666666667</v>
+        <v>105.933333333333</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>157.666666666667</v>
+        <v>134.5</v>
       </c>
       <c r="C8" s="4">
-        <v>151.666666666667</v>
+        <v>128.96666666666701</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>180.566666666667</v>
+        <v>157.666666666667</v>
       </c>
       <c r="C9" s="4">
-        <v>174.266666666667</v>
+        <v>151.666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>203.233333333333</v>
+        <v>180.566666666667</v>
       </c>
       <c r="C10" s="4">
-        <v>196.9</v>
+        <v>174.26666666666699</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4">
-        <v>225.7</v>
+        <v>203.23333333333301</v>
       </c>
       <c r="C11" s="4">
-        <v>219.366666666667</v>
+        <v>196.9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4">
-        <v>248.066666666667</v>
+        <v>225.7</v>
       </c>
       <c r="C12" s="4">
-        <v>241.766666666667</v>
+        <v>219.36666666666699</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4">
-        <v>270.366666666667</v>
+        <v>248.066666666667</v>
       </c>
       <c r="C13" s="4">
-        <v>264.166666666667</v>
+        <v>241.76666666666699</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4">
-        <v>292.833333333333</v>
+        <v>270.36666666666702</v>
       </c>
       <c r="C14" s="4">
-        <v>286.566666666667</v>
+        <v>264.16666666666703</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4">
-        <v>315.3</v>
+        <v>292.83333333333297</v>
       </c>
       <c r="C15" s="4">
-        <v>308.933333333333</v>
+        <v>286.566666666667</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4">
-        <v>337.833333333333</v>
+        <v>315.3</v>
       </c>
       <c r="C16" s="4">
-        <v>331.533333333333</v>
+        <v>308.933333333333</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4">
-        <v>360.2</v>
+        <v>337.83333333333297</v>
       </c>
       <c r="C17" s="4">
-        <v>354.1</v>
+        <v>331.53333333333302</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4">
-        <v>382.4</v>
+        <v>360.2</v>
       </c>
       <c r="C18" s="4">
-        <v>376.5</v>
+        <v>354.1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4">
-        <v>404.633333333333</v>
+        <v>382.4</v>
       </c>
       <c r="C19" s="4">
-        <v>398.866666666667</v>
+        <v>376.5</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4">
-        <v>426.766666666667</v>
+        <v>404.63333333333298</v>
       </c>
       <c r="C20" s="4">
-        <v>421.466666666667</v>
+        <v>398.86666666666702</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4">
-        <v>449</v>
+        <v>426.76666666666699</v>
       </c>
       <c r="C21" s="4">
-        <v>444.033333333333</v>
+        <v>421.46666666666698</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4">
-        <v>471.133333333333</v>
+        <v>449</v>
       </c>
       <c r="C22" s="4">
-        <v>466.633333333333</v>
+        <v>444.03333333333302</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4">
-        <v>493.4</v>
+        <v>471.13333333333298</v>
       </c>
       <c r="C23" s="4">
-        <v>489.1</v>
+        <v>466.63333333333298</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4">
-        <v>515.733333333333</v>
+        <v>493.4</v>
       </c>
       <c r="C24" s="4">
-        <v>511.366666666667</v>
+        <v>489.1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="4">
-        <v>538</v>
+        <v>515.73333333333301</v>
       </c>
       <c r="C25" s="4">
-        <v>533.6</v>
+        <v>511.36666666666702</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="4">
-        <v>560.133333333333</v>
+        <v>538</v>
       </c>
       <c r="C26" s="4">
-        <v>555.9</v>
+        <v>533.6</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="4">
-        <v>582.4</v>
+        <v>560.13333333333298</v>
       </c>
       <c r="C27" s="4">
-        <v>578.166666666667</v>
+        <v>555.9</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="4">
-        <v>604.533333333333</v>
+        <v>582.4</v>
       </c>
       <c r="C28" s="4">
-        <v>600.733333333333</v>
+        <v>578.16666666666697</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4">
-        <v>626.566666666667</v>
+        <v>604.53333333333296</v>
       </c>
       <c r="C29" s="4">
-        <v>623.133333333333</v>
+        <v>600.73333333333301</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4">
-        <v>648.666666666667</v>
+        <v>626.56666666666695</v>
       </c>
       <c r="C30" s="4">
-        <v>645.5</v>
+        <v>623.13333333333298</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="4">
+        <v>648.66666666666697</v>
+      </c>
+      <c r="C31" s="4">
+        <v>645.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="4">
-        <v>670.733333333333</v>
-      </c>
-      <c r="C31" s="4">
-        <v>667.966666666667</v>
+      <c r="B32" s="4">
+        <v>670.73333333333301</v>
+      </c>
+      <c r="C32" s="4">
+        <v>667.96666666666704</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>